--- a/src/main/webapp/template/批量导入唛头.xlsx
+++ b/src/main/webapp/template/批量导入唛头.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leq/Project/amir-service/src/main/webapp/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\MyProjects\amir\amir-service\src\main\webapp\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E56AFAD-FA3D-484B-82AC-02A95F919ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4EDEB6-09BE-457F-AF76-D4313ABAAF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="7420" windowWidth="38400" windowHeight="23540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24075" yWindow="9675" windowWidth="19380" windowHeight="10710" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>图片名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊型号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>唛头类型</t>
+    <t>外箱唛头图片名称</t>
+  </si>
+  <si>
+    <t>内箱唛头图片名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -42,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,19 +366,16 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,5 +392,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>